--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3969309.911657489</v>
+        <v>3967841.907580747</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285234</v>
+        <v>53890.85515285155</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7631491.734368768</v>
+        <v>7631491.734368769</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,22 +709,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>36.21593518981624</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>48.83589518354164</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>42.65191499665947</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>146.1050015067849</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>99.65544957127932</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>75.0567596807652</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>205.4093399017307</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>90.8316949233748</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>97.50541436712953</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>291.718663542986</v>
       </c>
       <c r="C11" t="n">
-        <v>274.2577136505129</v>
+        <v>229.1229940920105</v>
       </c>
       <c r="D11" t="n">
         <v>263.6678635001883</v>
@@ -1429,7 +1429,7 @@
         <v>160.1536483261575</v>
       </c>
       <c r="V11" t="n">
-        <v>191.6023607911376</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W11" t="n">
         <v>258.2257905969184</v>
@@ -1542,13 +1542,13 @@
         <v>54.40586990243659</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022735</v>
+        <v>75.98432295022752</v>
       </c>
       <c r="H13" t="n">
         <v>62.39685106506718</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282539</v>
+        <v>34.61884066282545</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.718663542986</v>
+        <v>291.7186635429859</v>
       </c>
       <c r="C14" t="n">
         <v>274.2577136505129</v>
@@ -1615,19 +1615,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E14" t="n">
-        <v>290.9151919517672</v>
+        <v>290.9151919517671</v>
       </c>
       <c r="F14" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0772286298367</v>
+        <v>322.0772286298366</v>
       </c>
       <c r="H14" t="n">
-        <v>180.6883544917231</v>
+        <v>225.8230740502261</v>
       </c>
       <c r="I14" t="n">
-        <v>34.24693463981494</v>
+        <v>34.24693463981488</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63697916278539</v>
+        <v>22.50225960428429</v>
       </c>
       <c r="T14" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U14" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V14" t="n">
-        <v>236.7370803496403</v>
+        <v>236.7370803496402</v>
       </c>
       <c r="W14" t="n">
-        <v>258.2257905969184</v>
+        <v>258.2257905969183</v>
       </c>
       <c r="X14" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144262</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813315</v>
       </c>
       <c r="D16" t="n">
-        <v>57.60029489771773</v>
+        <v>57.60029489771767</v>
       </c>
       <c r="E16" t="n">
-        <v>55.41878452607455</v>
+        <v>55.41878452607449</v>
       </c>
       <c r="F16" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243656</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022732</v>
       </c>
       <c r="H16" t="n">
-        <v>62.3968510650672</v>
+        <v>62.39685106506714</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282542</v>
+        <v>34.61884066282536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443832</v>
+        <v>41.69774406443826</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U16" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W16" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X16" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C17" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D17" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9062106478669</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F17" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G17" t="n">
         <v>319.0682473259365</v>
@@ -1864,7 +1864,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591472</v>
+        <v>31.2379533359148</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.62799785888518</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T17" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222574</v>
+        <v>157.1446670222569</v>
       </c>
       <c r="V17" t="n">
         <v>233.7280990457401</v>
@@ -1909,10 +1909,10 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7069412540754</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754246</v>
+        <v>85.80782075754253</v>
       </c>
       <c r="C19" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423307</v>
       </c>
       <c r="D19" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381759</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217433</v>
+        <v>52.4098032221744</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853648</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632724</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116705</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6098593589252</v>
+        <v>31.60985935892527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.6887627605381</v>
+        <v>38.68876276053818</v>
       </c>
       <c r="S19" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T19" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V19" t="n">
         <v>158.1134838994332</v>
@@ -2067,7 +2067,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X19" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y19" t="n">
         <v>124.5604939277</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C20" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D20" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9062106478669</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F20" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G20" t="n">
-        <v>319.0682473259371</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H20" t="n">
-        <v>222.8140927463258</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591472</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888518</v>
+        <v>64.62799785888522</v>
       </c>
       <c r="T20" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U20" t="n">
-        <v>157.1446670222578</v>
+        <v>157.1446670222569</v>
       </c>
       <c r="V20" t="n">
         <v>233.7280990457401</v>
@@ -2146,10 +2146,10 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I21" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851812</v>
       </c>
       <c r="S21" t="n">
         <v>149.7163148892172</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754246</v>
+        <v>85.8078207575425</v>
       </c>
       <c r="C22" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423304</v>
       </c>
       <c r="D22" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381756</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217433</v>
+        <v>52.40980322217438</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853645</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632721</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116702</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6098593589252</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.6887627605381</v>
+        <v>38.68876276053814</v>
       </c>
       <c r="S22" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T22" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V22" t="n">
         <v>158.1134838994332</v>
@@ -2304,7 +2304,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X22" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y22" t="n">
         <v>124.5604939277</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7096822390858</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C23" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D23" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E23" t="n">
-        <v>287.906210647867</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G23" t="n">
         <v>319.0682473259365</v>
@@ -2338,7 +2338,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591453</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.62799785888522</v>
+        <v>64.62799785888521</v>
       </c>
       <c r="T23" t="n">
         <v>119.3959672168082</v>
       </c>
       <c r="U23" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222583</v>
       </c>
       <c r="V23" t="n">
         <v>233.7280990457401</v>
@@ -2383,7 +2383,7 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2137792316588</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.8078207575425</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423304</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381756</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217438</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853645</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632721</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116702</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892525</v>
+        <v>31.60985935892523</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053815</v>
+        <v>38.68876276053813</v>
       </c>
       <c r="S25" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T25" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V25" t="n">
         <v>158.1134838994332</v>
@@ -2541,7 +2541,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y25" t="n">
         <v>124.5604939277</v>
@@ -2575,7 +2575,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I26" t="n">
-        <v>34.24693463981494</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S26" t="n">
-        <v>67.63697916278539</v>
+        <v>22.50225960428294</v>
       </c>
       <c r="T26" t="n">
         <v>122.4049485207083</v>
@@ -2620,7 +2620,7 @@
         <v>258.2257905969184</v>
       </c>
       <c r="X26" t="n">
-        <v>233.581202999472</v>
+        <v>278.7159225579744</v>
       </c>
       <c r="Y26" t="n">
         <v>295.222760535559</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144266</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813319</v>
       </c>
       <c r="D28" t="n">
-        <v>57.60029489771773</v>
+        <v>57.60029489771772</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607455</v>
+        <v>55.41878452607453</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243661</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022737</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506721</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282542</v>
+        <v>34.61884066282541</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.69774406443833</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T28" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U28" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021194</v>
       </c>
       <c r="V28" t="n">
         <v>161.1224652033334</v>
@@ -2794,7 +2794,7 @@
         <v>291.718663542986</v>
       </c>
       <c r="C29" t="n">
-        <v>229.1229940920105</v>
+        <v>274.2577136505129</v>
       </c>
       <c r="D29" t="n">
         <v>263.6678635001883</v>
@@ -2812,7 +2812,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981491</v>
+        <v>34.24693463981495</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.63697916278537</v>
+        <v>22.50225960428294</v>
       </c>
       <c r="T29" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U29" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V29" t="n">
         <v>236.7370803496403</v>
@@ -2860,7 +2860,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y29" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.81680206144264</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C31" t="n">
-        <v>76.23164297813318</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D31" t="n">
-        <v>57.6002948977177</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E31" t="n">
-        <v>55.41878452607452</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F31" t="n">
-        <v>54.40586990243659</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022735</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H31" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506722</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282539</v>
+        <v>34.61884066282543</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443831</v>
+        <v>41.69774406443834</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T31" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U31" t="n">
-        <v>195.2497706021194</v>
+        <v>195.2497706021192</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W31" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X31" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C32" t="n">
         <v>271.2487323466128</v>
@@ -3037,19 +3037,19 @@
         <v>260.6588821962882</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9062106478671</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F32" t="n">
         <v>312.8518863173167</v>
       </c>
       <c r="G32" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H32" t="n">
-        <v>222.8140927463254</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591485</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>64.627997858885</v>
       </c>
       <c r="T32" t="n">
-        <v>119.3959672168083</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U32" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V32" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X32" t="n">
         <v>275.7069412540743</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.2137792316589</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754259</v>
+        <v>85.80782075754252</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22266167423312</v>
+        <v>73.22266167423305</v>
       </c>
       <c r="D34" t="n">
-        <v>54.59131359381765</v>
+        <v>54.59131359381757</v>
       </c>
       <c r="E34" t="n">
-        <v>52.40980322217446</v>
+        <v>52.40980322217439</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853653</v>
+        <v>51.39688859853646</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632729</v>
+        <v>72.97534164632722</v>
       </c>
       <c r="H34" t="n">
-        <v>59.38786976116711</v>
+        <v>59.38786976116704</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892533</v>
+        <v>31.60985935892526</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053823</v>
+        <v>38.68876276053816</v>
       </c>
       <c r="S34" t="n">
         <v>112.7136760890196</v>
       </c>
       <c r="T34" t="n">
-        <v>129.685113683557</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U34" t="n">
         <v>192.2407892982196</v>
       </c>
       <c r="V34" t="n">
-        <v>158.1134838994333</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W34" t="n">
-        <v>192.4988389121963</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X34" t="n">
         <v>131.6854959646424</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.5604939277001</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7096822390858</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C35" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D35" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E35" t="n">
-        <v>287.906210647867</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F35" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G35" t="n">
-        <v>319.0682473259365</v>
+        <v>319.0682473259361</v>
       </c>
       <c r="H35" t="n">
         <v>222.814092746326</v>
       </c>
       <c r="I35" t="n">
-        <v>31.2379533359143</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y35" t="n">
         <v>292.2137792316588</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.8078207575425</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C37" t="n">
-        <v>73.22266167423304</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381756</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217438</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853645</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632721</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38786976116702</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892525</v>
+        <v>31.60985935892523</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053815</v>
+        <v>38.68876276053813</v>
       </c>
       <c r="S37" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T37" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V37" t="n">
         <v>158.1134838994332</v>
@@ -3489,7 +3489,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X37" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y37" t="n">
         <v>124.5604939277</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390859</v>
       </c>
       <c r="C38" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D38" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9062106478669</v>
+        <v>287.9062106478671</v>
       </c>
       <c r="F38" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G38" t="n">
-        <v>319.0682473259365</v>
+        <v>319.0682473259366</v>
       </c>
       <c r="H38" t="n">
-        <v>222.814092746326</v>
+        <v>222.8140927463261</v>
       </c>
       <c r="I38" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591485</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.62799785888521</v>
+        <v>64.627997858885</v>
       </c>
       <c r="T38" t="n">
-        <v>119.3959672168082</v>
+        <v>119.3959672168083</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222583</v>
+        <v>157.1446670222569</v>
       </c>
       <c r="V38" t="n">
-        <v>233.7280990457401</v>
+        <v>233.7280990457402</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2168092930182</v>
+        <v>255.2168092930183</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316589</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.80782075754249</v>
+        <v>85.80782075754259</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423302</v>
+        <v>73.22266167423312</v>
       </c>
       <c r="D40" t="n">
-        <v>54.59131359381755</v>
+        <v>54.59131359381765</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217436</v>
+        <v>52.40980322217446</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853644</v>
+        <v>51.39688859853653</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632719</v>
+        <v>72.97534164632729</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38786976116701</v>
+        <v>59.38786976116711</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892523</v>
+        <v>31.60985935892533</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053813</v>
+        <v>38.68876276053823</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T40" t="n">
-        <v>129.6851136835569</v>
+        <v>129.685113683557</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994333</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121963</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939277001</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H41" t="n">
-        <v>225.8230740502262</v>
+        <v>180.6883544917241</v>
       </c>
       <c r="I41" t="n">
-        <v>34.24693463981492</v>
+        <v>34.24693463981491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.63697916278538</v>
+        <v>67.63697916278537</v>
       </c>
       <c r="T41" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U41" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V41" t="n">
         <v>236.7370803496403</v>
@@ -3808,7 +3808,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.0880409770562</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.81680206144266</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813319</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60029489771772</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E43" t="n">
-        <v>55.41878452607453</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F43" t="n">
-        <v>54.40586990243661</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G43" t="n">
-        <v>75.98432295022737</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H43" t="n">
-        <v>62.3968510650672</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I43" t="n">
-        <v>34.61884066282541</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443831</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6940949874568</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U43" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021198</v>
       </c>
       <c r="V43" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W43" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X43" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I44" t="n">
-        <v>34.24693463981492</v>
+        <v>34.24693463981491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.63697916278538</v>
+        <v>22.50225960428294</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U44" t="n">
-        <v>115.018928767654</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V44" t="n">
         <v>236.7370803496403</v>
@@ -4045,7 +4045,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y44" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.81680206144266</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813319</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60029489771772</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E46" t="n">
-        <v>55.41878452607453</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F46" t="n">
-        <v>54.40586990243661</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G46" t="n">
-        <v>75.98432295022737</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506718</v>
+        <v>62.3968510650677</v>
       </c>
       <c r="I46" t="n">
-        <v>34.61884066282541</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.6977440644383</v>
+        <v>41.69774406443829</v>
       </c>
       <c r="S46" t="n">
-        <v>115.7226573929193</v>
+        <v>115.7226573929197</v>
       </c>
       <c r="T46" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U46" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W46" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X46" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>766.0008400101203</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>540.6514970160482</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>540.6514970160482</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>297.2027203719481</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W2" t="n">
-        <v>297.2027203719481</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X2" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.9050472788936</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C3" t="n">
-        <v>554.4520179977666</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D3" t="n">
-        <v>405.5176083365153</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5176083365153</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>715.3068164607089</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>715.3068164607089</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>715.3068164607089</v>
       </c>
       <c r="Y3" t="n">
-        <v>728.9050472788936</v>
+        <v>715.3068164607089</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>490.789139032637</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>490.789139032637</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>490.789139032637</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481.618781308658</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>405.8038725402083</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D6" t="n">
-        <v>256.869462878957</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>481.618781308658</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>481.618781308658</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>513.1241971476163</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>513.1241971476163</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>422.7646269515677</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C9" t="n">
-        <v>248.3115976704407</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D9" t="n">
-        <v>248.3115976704407</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>872.3079687193485</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V9" t="n">
-        <v>590.9799639716357</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W9" t="n">
-        <v>590.9799639716357</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X9" t="n">
-        <v>590.9799639716357</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y9" t="n">
-        <v>590.9799639716357</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C11" t="n">
         <v>1537.198449955416</v>
@@ -5041,22 +5041,22 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733941</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P11" t="n">
         <v>3270.319423338377</v>
@@ -5068,25 +5068,25 @@
         <v>3496.732578929901</v>
       </c>
       <c r="S11" t="n">
-        <v>3428.412397957391</v>
+        <v>3428.41239795739</v>
       </c>
       <c r="T11" t="n">
-        <v>3304.771035815261</v>
+        <v>3304.77103581526</v>
       </c>
       <c r="U11" t="n">
         <v>3142.999673869647</v>
       </c>
       <c r="V11" t="n">
-        <v>2949.461935696781</v>
+        <v>2903.871309880111</v>
       </c>
       <c r="W11" t="n">
-        <v>2688.627803780702</v>
+        <v>2643.037177964032</v>
       </c>
       <c r="X11" t="n">
-        <v>2407.096568873657</v>
+        <v>2361.505943056987</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435211</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J12" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K12" t="n">
-        <v>384.3515287087258</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L12" t="n">
-        <v>868.528217749624</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M12" t="n">
-        <v>1485.518798361603</v>
+        <v>1595.395061194641</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.99734651695</v>
+        <v>1902.139119744109</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.315031813138</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P12" t="n">
         <v>2445.748972877462</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.7999111568626</v>
+        <v>490.7999111568628</v>
       </c>
       <c r="C13" t="n">
-        <v>413.7982515829907</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D13" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963321</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524568</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H13" t="n">
         <v>104.9031775006439</v>
@@ -5199,13 +5199,13 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J13" t="n">
-        <v>137.0106293959409</v>
+        <v>137.0106293959407</v>
       </c>
       <c r="K13" t="n">
-        <v>319.1086914830888</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L13" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889142</v>
       </c>
       <c r="M13" t="n">
         <v>865.6171716594309</v>
@@ -5232,19 +5232,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U13" t="n">
-        <v>1205.659547501322</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.90958264947</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665448</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X13" t="n">
-        <v>709.3719084225625</v>
+        <v>709.3719084225627</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.635817725124</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.607824138747</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D14" t="n">
-        <v>1225.276648886031</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4229196418219</v>
+        <v>977.0135454584913</v>
       </c>
       <c r="F14" t="n">
-        <v>612.3715382062493</v>
+        <v>657.9621640229188</v>
       </c>
       <c r="G14" t="n">
-        <v>287.0410042367173</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H14" t="n">
-        <v>104.5275148511384</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I14" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M14" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N14" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O14" t="n">
         <v>2865.989524423014</v>
@@ -5305,25 +5305,25 @@
         <v>3496.732578929901</v>
       </c>
       <c r="S14" t="n">
-        <v>3428.41239795739</v>
+        <v>3474.003023774058</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.77103581526</v>
+        <v>3350.361661631929</v>
       </c>
       <c r="U14" t="n">
-        <v>3142.999673869647</v>
+        <v>3188.590299686315</v>
       </c>
       <c r="V14" t="n">
-        <v>2903.871309880111</v>
+        <v>2949.46193569678</v>
       </c>
       <c r="W14" t="n">
-        <v>2643.037177964032</v>
+        <v>2688.627803780701</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.505943056987</v>
+        <v>2407.096568873656</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.30113443521</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>494.2277915417638</v>
       </c>
       <c r="L15" t="n">
-        <v>978.404480582662</v>
+        <v>707.2453574052029</v>
       </c>
       <c r="M15" t="n">
-        <v>1134.347048082142</v>
+        <v>863.1879249046823</v>
       </c>
       <c r="N15" t="n">
-        <v>1720.191938518637</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O15" t="n">
-        <v>2247.509623814826</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P15" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q15" t="n">
         <v>2664.59575085658</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568628</v>
+        <v>490.7999111568624</v>
       </c>
       <c r="C16" t="n">
-        <v>413.7982515829909</v>
+        <v>413.7982515829905</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246902</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E16" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885906</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H16" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I16" t="n">
         <v>69.93465157859802</v>
@@ -5439,10 +5439,10 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830888</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M16" t="n">
         <v>865.6171716594311</v>
@@ -5457,31 +5457,31 @@
         <v>1608.929321817166</v>
       </c>
       <c r="Q16" t="n">
-        <v>1695.926483912368</v>
+        <v>1695.926483912367</v>
       </c>
       <c r="R16" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S16" t="n">
-        <v>1536.915977389784</v>
+        <v>1536.915977389783</v>
       </c>
       <c r="T16" t="n">
         <v>1402.881538008514</v>
       </c>
       <c r="U16" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W16" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665445</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225626</v>
+        <v>709.3719084225622</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5138526330675</v>
+        <v>580.5138526330671</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D17" t="n">
         <v>1255.670399430478</v>
@@ -5506,10 +5506,10 @@
         <v>648.844038859585</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444977</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I17" t="n">
         <v>69.93465157859802</v>
@@ -5518,16 +5518,16 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L17" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N17" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O17" t="n">
         <v>2865.989524423014</v>
@@ -5545,22 +5545,22 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T17" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U17" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V17" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W17" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X17" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y17" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>179.810914411636</v>
       </c>
       <c r="K18" t="n">
-        <v>232.4072068993111</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L18" t="n">
-        <v>716.5838959402092</v>
+        <v>951.399181330203</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.574476552189</v>
+        <v>1568.389761942182</v>
       </c>
       <c r="N18" t="n">
-        <v>1982.601975307653</v>
+        <v>2217.417260697647</v>
       </c>
       <c r="O18" t="n">
-        <v>2509.919660603841</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P18" t="n">
-        <v>2600.85738357143</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q18" t="n">
         <v>2664.59575085658</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757507</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563234</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524668</v>
+        <v>340.4192602524672</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785537</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891229</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797014</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I19" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J19" t="n">
-        <v>139.989520886802</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K19" t="n">
-        <v>325.0664744648111</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L19" t="n">
-        <v>591.396240561498</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M19" t="n">
-        <v>805.0716048248718</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N19" t="n">
-        <v>1092.052359467715</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O19" t="n">
-        <v>1348.215093692346</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.32042945519</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S19" t="n">
-        <v>1494.364726627559</v>
+        <v>1494.36472662756</v>
       </c>
       <c r="T19" t="n">
         <v>1363.369662300734</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220991</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325607</v>
+        <v>682.0175329325614</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>964.8560452407135</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595856</v>
+        <v>648.8440388595855</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5528799444976</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H20" t="n">
         <v>101.4881397966937</v>
@@ -5755,7 +5755,7 @@
         <v>243.8279252593006</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733937</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L20" t="n">
         <v>1150.588225603151</v>
@@ -5785,16 +5785,16 @@
         <v>3310.84978592415</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V20" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W20" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X20" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y20" t="n">
         <v>2084.576759816323</v>
@@ -5825,25 +5825,25 @@
         <v>220.937241300597</v>
       </c>
       <c r="H21" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I21" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J21" t="n">
-        <v>179.810914411636</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K21" t="n">
-        <v>494.2277915417638</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L21" t="n">
-        <v>636.1210403766652</v>
+        <v>611.2725387322375</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.111620988645</v>
+        <v>1228.263119344217</v>
       </c>
       <c r="N21" t="n">
-        <v>1902.139119744109</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O21" t="n">
         <v>2039.533108956335</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757505</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524668</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E22" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H22" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I22" t="n">
         <v>69.93465157859802</v>
@@ -5916,25 +5916,25 @@
         <v>325.0664744648111</v>
       </c>
       <c r="L22" t="n">
-        <v>591.396240561498</v>
+        <v>591.3962405614978</v>
       </c>
       <c r="M22" t="n">
-        <v>805.0716048248718</v>
+        <v>877.5327376228756</v>
       </c>
       <c r="N22" t="n">
-        <v>1092.052359467715</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O22" t="n">
-        <v>1348.215093692346</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.32042945519</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q22" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S22" t="n">
         <v>1494.364726627559</v>
@@ -5943,19 +5943,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U22" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0175329325607</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="23">
@@ -5974,16 +5974,16 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595855</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444976</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H23" t="n">
-        <v>101.4881397966935</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I23" t="n">
         <v>69.93465157859802</v>
@@ -5992,19 +5992,19 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K23" t="n">
-        <v>625.1936695733941</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L23" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N23" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O23" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P23" t="n">
         <v>3270.319423338377</v>
@@ -6019,19 +6019,19 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T23" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U23" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V23" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W23" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X23" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y23" t="n">
         <v>2084.576759816323</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1819.769769722297</v>
+        <v>987.6329416489756</v>
       </c>
       <c r="C24" t="n">
-        <v>1645.31674044117</v>
+        <v>813.1799123678486</v>
       </c>
       <c r="D24" t="n">
-        <v>1496.382330779919</v>
+        <v>664.2455027065973</v>
       </c>
       <c r="E24" t="n">
-        <v>1337.144875774463</v>
+        <v>505.0080477011419</v>
       </c>
       <c r="F24" t="n">
-        <v>1190.610317801348</v>
+        <v>358.4734897280268</v>
       </c>
       <c r="G24" t="n">
-        <v>1053.074069373918</v>
+        <v>220.937241300597</v>
       </c>
       <c r="H24" t="n">
-        <v>951.2420326055336</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I24" t="n">
-        <v>902.0714796519193</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J24" t="n">
-        <v>902.0714796519193</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K24" t="n">
-        <v>1169.265940034041</v>
+        <v>232.4072068993111</v>
       </c>
       <c r="L24" t="n">
-        <v>1286.310687224515</v>
+        <v>716.5838959402092</v>
       </c>
       <c r="M24" t="n">
-        <v>1903.301267836494</v>
+        <v>872.5264634396887</v>
       </c>
       <c r="N24" t="n">
-        <v>2552.328766591959</v>
+        <v>1521.553962195153</v>
       </c>
       <c r="O24" t="n">
-        <v>3079.646451888147</v>
+        <v>2048.871647491342</v>
       </c>
       <c r="P24" t="n">
-        <v>3485.862315809274</v>
+        <v>2455.087511412468</v>
       </c>
       <c r="Q24" t="n">
-        <v>3496.732578929901</v>
+        <v>2664.59575085658</v>
       </c>
       <c r="R24" t="n">
-        <v>3469.731610315236</v>
+        <v>2637.594782241915</v>
       </c>
       <c r="S24" t="n">
-        <v>3318.503009417037</v>
+        <v>2486.366181343716</v>
       </c>
       <c r="T24" t="n">
-        <v>3121.131398344963</v>
+        <v>2288.994570271641</v>
       </c>
       <c r="U24" t="n">
-        <v>2892.986370672796</v>
+        <v>2060.849542599475</v>
       </c>
       <c r="V24" t="n">
-        <v>2657.834262441053</v>
+        <v>1825.697434367732</v>
       </c>
       <c r="W24" t="n">
-        <v>2403.596905712852</v>
+        <v>1571.46007763953</v>
       </c>
       <c r="X24" t="n">
-        <v>2195.745405507319</v>
+        <v>1363.608577433997</v>
       </c>
       <c r="Y24" t="n">
-        <v>1987.985106742365</v>
+        <v>1155.848278669044</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2318.960381664397</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C25" t="n">
-        <v>2244.99809714497</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D25" t="n">
-        <v>2189.855356141114</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E25" t="n">
-        <v>2136.916160967201</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F25" t="n">
-        <v>2085.00011187777</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G25" t="n">
-        <v>2011.287645568349</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H25" t="n">
-        <v>1951.299898334847</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I25" t="n">
-        <v>1919.370747467245</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J25" t="n">
-        <v>1989.425616775449</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K25" t="n">
-        <v>2174.502570353458</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L25" t="n">
-        <v>2440.832336450145</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M25" t="n">
-        <v>2654.50770071352</v>
+        <v>877.5327376228755</v>
       </c>
       <c r="N25" t="n">
-        <v>2941.488455356363</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O25" t="n">
-        <v>3197.651189580994</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P25" t="n">
-        <v>3406.756525343838</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q25" t="n">
-        <v>3496.732578929901</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R25" t="n">
-        <v>3457.653020585923</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S25" t="n">
-        <v>3343.800822516206</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T25" t="n">
-        <v>3212.805758189381</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U25" t="n">
-        <v>3018.623142736634</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V25" t="n">
-        <v>2858.912552939226</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W25" t="n">
-        <v>2664.469281310745</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X25" t="n">
-        <v>2531.453628821208</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y25" t="n">
-        <v>2405.634948086157</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="26">
@@ -6217,55 +6217,55 @@
         <v>657.9621640229191</v>
       </c>
       <c r="G26" t="n">
-        <v>332.6316300533871</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5275148511384</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I26" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593008</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733933</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M26" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P26" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q26" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R26" t="n">
         <v>3496.732578929901</v>
       </c>
       <c r="S26" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.771035815261</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U26" t="n">
-        <v>3142.999673869647</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V26" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W26" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X26" t="n">
         <v>2407.096568873657</v>
@@ -6305,25 +6305,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J27" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K27" t="n">
-        <v>494.2277915417638</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L27" t="n">
-        <v>611.2725387322374</v>
+        <v>769.4520001047315</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.263119344217</v>
+        <v>1386.442580716711</v>
       </c>
       <c r="N27" t="n">
-        <v>1827.493564613684</v>
+        <v>2035.470079472175</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.811249909873</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q27" t="n">
         <v>2664.59575085658</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568629</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829909</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6161355246902</v>
+        <v>355.6161355246901</v>
       </c>
       <c r="E28" t="n">
         <v>299.637565296332</v>
@@ -6393,25 +6393,25 @@
         <v>582.4595660889144</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594309</v>
       </c>
       <c r="N28" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O28" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P28" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R28" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S28" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T28" t="n">
         <v>1402.881538008514</v>
@@ -6426,10 +6426,10 @@
         <v>845.426935966545</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225627</v>
+        <v>709.3719084225626</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330676</v>
+        <v>580.5138526330675</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1768.635817725124</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C29" t="n">
         <v>1537.198449955416</v>
@@ -6448,67 +6448,67 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E29" t="n">
-        <v>977.0135454584915</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F29" t="n">
-        <v>657.962164022919</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G29" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H29" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I29" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593008</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733933</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L29" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M29" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N29" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O29" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P29" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q29" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R29" t="n">
         <v>3496.732578929901</v>
       </c>
       <c r="S29" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.771035815261</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U29" t="n">
-        <v>3142.999673869647</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V29" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W29" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X29" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y29" t="n">
-        <v>2063.301134435211</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J30" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K30" t="n">
-        <v>122.530944066273</v>
+        <v>232.4072068993111</v>
       </c>
       <c r="L30" t="n">
-        <v>606.7076331071712</v>
+        <v>716.5838959402092</v>
       </c>
       <c r="M30" t="n">
-        <v>863.1879249046823</v>
+        <v>1333.574476552189</v>
       </c>
       <c r="N30" t="n">
-        <v>1512.215423660147</v>
+        <v>1982.601975307653</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.533108956335</v>
+        <v>2509.919660603841</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q30" t="n">
         <v>2664.59575085658</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.7999111568626</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C31" t="n">
-        <v>413.7982515829907</v>
+        <v>413.798251582991</v>
       </c>
       <c r="D31" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E31" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963321</v>
       </c>
       <c r="F31" t="n">
-        <v>244.6821411524565</v>
+        <v>244.6821411524567</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H31" t="n">
         <v>104.9031775006439</v>
@@ -6621,28 +6621,28 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J31" t="n">
-        <v>137.0106293959407</v>
+        <v>137.0106293959406</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830885</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.459566088914</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594307</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O31" t="n">
-        <v>1402.802877545183</v>
+        <v>1402.802877545182</v>
       </c>
       <c r="P31" t="n">
-        <v>1608.929321817166</v>
+        <v>1608.929321817165</v>
       </c>
       <c r="Q31" t="n">
-        <v>1695.926483912368</v>
+        <v>1695.926483912367</v>
       </c>
       <c r="R31" t="n">
         <v>1653.807550513945</v>
@@ -6660,13 +6660,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W31" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665452</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225627</v>
+        <v>709.3719084225628</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330677</v>
       </c>
     </row>
     <row r="32">
@@ -6685,13 +6685,13 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407133</v>
       </c>
       <c r="F32" t="n">
-        <v>648.8440388595848</v>
+        <v>648.8440388595853</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444972</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H32" t="n">
         <v>101.4881397966938</v>
@@ -6703,16 +6703,16 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K32" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L32" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M32" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N32" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O32" t="n">
         <v>2865.989524423014</v>
@@ -6730,7 +6730,7 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
         <v>3152.117799032982</v>
@@ -6742,7 +6742,7 @@
         <v>2658.234053236256</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y32" t="n">
         <v>2084.576759816323</v>
@@ -6779,25 +6779,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J33" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K33" t="n">
-        <v>122.530944066273</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L33" t="n">
-        <v>606.7076331071712</v>
+        <v>769.4520001047315</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.698213719151</v>
+        <v>1386.442580716711</v>
       </c>
       <c r="N33" t="n">
-        <v>1512.215423660147</v>
+        <v>2035.470079472175</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.533108956335</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q33" t="n">
         <v>2664.59575085658</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757511</v>
+        <v>469.5242857757506</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563237</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D34" t="n">
-        <v>340.4192602524675</v>
+        <v>340.4192602524671</v>
       </c>
       <c r="E34" t="n">
-        <v>287.4800650785539</v>
+        <v>287.4800650785536</v>
       </c>
       <c r="F34" t="n">
-        <v>235.564015989123</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8515496797015</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8638024461994</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I34" t="n">
         <v>69.93465157859802</v>
@@ -6861,49 +6861,49 @@
         <v>139.9895208868019</v>
       </c>
       <c r="K34" t="n">
-        <v>325.0664744648109</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3962405614975</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228752</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N34" t="n">
-        <v>1092.052359467718</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O34" t="n">
-        <v>1348.215093692349</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.320429455193</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q34" t="n">
-        <v>1647.296483041256</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R34" t="n">
-        <v>1608.216924697278</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S34" t="n">
-        <v>1494.364726627561</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T34" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.476457050581</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W34" t="n">
-        <v>815.0331854220998</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X34" t="n">
-        <v>682.0175329325619</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975113</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>648.8440388595848</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444974</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4881397966933</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I35" t="n">
         <v>69.93465157859802</v>
@@ -6982,7 +6982,7 @@
         <v>2379.742193383655</v>
       </c>
       <c r="Y35" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>122.530944066273</v>
       </c>
       <c r="L36" t="n">
-        <v>454.1738591511937</v>
+        <v>606.7076331071712</v>
       </c>
       <c r="M36" t="n">
-        <v>1071.164439763173</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N36" t="n">
-        <v>1720.191938518637</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O36" t="n">
-        <v>2247.509623814826</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P36" t="n">
         <v>2653.725487735952</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757505</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563232</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D37" t="n">
         <v>340.419260252467</v>
@@ -7083,7 +7083,7 @@
         <v>287.4800650785535</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5640159891228</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G37" t="n">
         <v>161.8515496797013</v>
@@ -7095,7 +7095,7 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9895208868019</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K37" t="n">
         <v>325.066474464811</v>
@@ -7104,13 +7104,13 @@
         <v>591.3962405614977</v>
       </c>
       <c r="M37" t="n">
-        <v>877.5327376228754</v>
+        <v>805.0716048248726</v>
       </c>
       <c r="N37" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O37" t="n">
-        <v>1420.676226490349</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P37" t="n">
         <v>1557.320429455191</v>
@@ -7134,13 +7134,13 @@
         <v>1009.47645705058</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220989</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X37" t="n">
-        <v>682.0175329325612</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975106</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="38">
@@ -7159,16 +7159,16 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407132</v>
+        <v>964.8560452407135</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595852</v>
+        <v>648.8440388595855</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444978</v>
+        <v>326.552879944498</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I38" t="n">
         <v>69.93465157859802</v>
@@ -7204,19 +7204,19 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T38" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U38" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V38" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W38" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X38" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y38" t="n">
         <v>2084.576759816323</v>
@@ -7256,16 +7256,16 @@
         <v>69.93465157859802</v>
       </c>
       <c r="K39" t="n">
-        <v>384.3515287087258</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L39" t="n">
-        <v>868.528217749624</v>
+        <v>606.7076331071712</v>
       </c>
       <c r="M39" t="n">
-        <v>1485.518798361603</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.99734651695</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O39" t="n">
         <v>2039.533108956335</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2318.960381664397</v>
+        <v>469.5242857757511</v>
       </c>
       <c r="C40" t="n">
-        <v>2244.99809714497</v>
+        <v>395.5620012563237</v>
       </c>
       <c r="D40" t="n">
-        <v>2189.855356141114</v>
+        <v>340.4192602524675</v>
       </c>
       <c r="E40" t="n">
-        <v>2136.916160967201</v>
+        <v>287.4800650785539</v>
       </c>
       <c r="F40" t="n">
-        <v>2085.00011187777</v>
+        <v>235.564015989123</v>
       </c>
       <c r="G40" t="n">
-        <v>2011.287645568349</v>
+        <v>161.8515496797015</v>
       </c>
       <c r="H40" t="n">
-        <v>1951.299898334847</v>
+        <v>101.8638024461994</v>
       </c>
       <c r="I40" t="n">
-        <v>1919.370747467245</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J40" t="n">
-        <v>1989.425616775449</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K40" t="n">
-        <v>2174.502570353458</v>
+        <v>325.0664744648109</v>
       </c>
       <c r="L40" t="n">
-        <v>2368.371203652142</v>
+        <v>591.3962405614975</v>
       </c>
       <c r="M40" t="n">
-        <v>2654.50770071352</v>
+        <v>877.5327376228752</v>
       </c>
       <c r="N40" t="n">
-        <v>2941.488455356363</v>
+        <v>1092.052359467718</v>
       </c>
       <c r="O40" t="n">
-        <v>3197.651189580994</v>
+        <v>1348.215093692349</v>
       </c>
       <c r="P40" t="n">
-        <v>3406.756525343838</v>
+        <v>1557.320429455193</v>
       </c>
       <c r="Q40" t="n">
-        <v>3496.732578929901</v>
+        <v>1647.296483041256</v>
       </c>
       <c r="R40" t="n">
-        <v>3457.653020585923</v>
+        <v>1608.216924697278</v>
       </c>
       <c r="S40" t="n">
-        <v>3343.800822516206</v>
+        <v>1494.364726627561</v>
       </c>
       <c r="T40" t="n">
-        <v>3212.805758189381</v>
+        <v>1363.369662300735</v>
       </c>
       <c r="U40" t="n">
-        <v>3018.623142736634</v>
+        <v>1169.187046847988</v>
       </c>
       <c r="V40" t="n">
-        <v>2858.912552939226</v>
+        <v>1009.476457050581</v>
       </c>
       <c r="W40" t="n">
-        <v>2664.469281310745</v>
+        <v>815.0331854220998</v>
       </c>
       <c r="X40" t="n">
-        <v>2531.453628821208</v>
+        <v>682.0175329325619</v>
       </c>
       <c r="Y40" t="n">
-        <v>2405.634948086157</v>
+        <v>556.1988521975113</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C41" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D41" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886032</v>
       </c>
       <c r="E41" t="n">
-        <v>977.0135454584916</v>
+        <v>931.4229196418228</v>
       </c>
       <c r="F41" t="n">
-        <v>657.9621640229191</v>
+        <v>612.3715382062502</v>
       </c>
       <c r="G41" t="n">
-        <v>332.631630053387</v>
+        <v>287.0410042367182</v>
       </c>
       <c r="H41" t="n">
         <v>104.5275148511383</v>
@@ -7426,37 +7426,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O41" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P41" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q41" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R41" t="n">
         <v>3496.732578929901</v>
       </c>
       <c r="S41" t="n">
-        <v>3428.41239795739</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T41" t="n">
-        <v>3304.77103581526</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U41" t="n">
         <v>3142.999673869647</v>
       </c>
       <c r="V41" t="n">
-        <v>2903.871309880111</v>
+        <v>2903.871309880112</v>
       </c>
       <c r="W41" t="n">
-        <v>2643.037177964032</v>
+        <v>2643.037177964033</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.505943056987</v>
+        <v>2361.505943056988</v>
       </c>
       <c r="Y41" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.301134435211</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J42" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K42" t="n">
-        <v>232.4072068993111</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L42" t="n">
-        <v>716.5838959402092</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M42" t="n">
-        <v>1253.111620988645</v>
+        <v>1485.518798361603</v>
       </c>
       <c r="N42" t="n">
-        <v>1902.139119744109</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.533108956335</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P42" t="n">
         <v>2445.748972877462</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568627</v>
+        <v>490.7999111568626</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829908</v>
+        <v>413.7982515829907</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6161355246901</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E43" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F43" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524565</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9302997885906</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H43" t="n">
         <v>104.9031775006439</v>
@@ -7602,19 +7602,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U43" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V43" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W43" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225626</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y43" t="n">
-        <v>580.5138526330675</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="44">
@@ -7633,10 +7633,10 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E44" t="n">
-        <v>977.0135454584916</v>
+        <v>977.0135454584915</v>
       </c>
       <c r="F44" t="n">
-        <v>657.9621640229191</v>
+        <v>657.962164022919</v>
       </c>
       <c r="G44" t="n">
         <v>332.631630053387</v>
@@ -7645,40 +7645,40 @@
         <v>104.5275148511383</v>
       </c>
       <c r="I44" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593014</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M44" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N44" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O44" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P44" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q44" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R44" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S44" t="n">
-        <v>3428.41239795739</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T44" t="n">
-        <v>3304.77103581526</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U44" t="n">
         <v>3188.590299686316</v>
@@ -7721,31 +7721,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H45" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J45" t="n">
-        <v>179.810914411636</v>
+        <v>130.0138609256395</v>
       </c>
       <c r="K45" t="n">
-        <v>337.1291119607201</v>
+        <v>444.4307380557673</v>
       </c>
       <c r="L45" t="n">
-        <v>454.1738591511937</v>
+        <v>561.4754852462409</v>
       </c>
       <c r="M45" t="n">
-        <v>1071.164439763173</v>
+        <v>1178.46606585822</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.191938518637</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O45" t="n">
-        <v>2247.509623814826</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P45" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q45" t="n">
         <v>2664.59575085658</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2291.606006174396</v>
+        <v>490.7999111568631</v>
       </c>
       <c r="C46" t="n">
-        <v>2214.604346600524</v>
+        <v>413.7982515829912</v>
       </c>
       <c r="D46" t="n">
-        <v>2156.422230542223</v>
+        <v>355.6161355246905</v>
       </c>
       <c r="E46" t="n">
-        <v>2100.443660313865</v>
+        <v>299.6375652963324</v>
       </c>
       <c r="F46" t="n">
-        <v>2045.488236169989</v>
+        <v>244.6821411524571</v>
       </c>
       <c r="G46" t="n">
-        <v>1968.736394806123</v>
+        <v>167.930299788591</v>
       </c>
       <c r="H46" t="n">
-        <v>1905.709272518176</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
-        <v>1870.740746596131</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J46" t="n">
-        <v>1937.816724413473</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K46" t="n">
-        <v>2119.914786500621</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L46" t="n">
-        <v>2383.265661106447</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M46" t="n">
-        <v>2666.423266676964</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N46" t="n">
-        <v>2950.425129828946</v>
+        <v>1149.619034811413</v>
       </c>
       <c r="O46" t="n">
-        <v>3203.608972562715</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P46" t="n">
-        <v>3409.735416834698</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q46" t="n">
-        <v>3496.7325789299</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R46" t="n">
-        <v>3454.613645531478</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S46" t="n">
-        <v>3337.722072407317</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T46" t="n">
-        <v>3203.687633026047</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U46" t="n">
-        <v>3006.465642518855</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V46" t="n">
-        <v>2843.715677667004</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W46" t="n">
-        <v>2646.233030984078</v>
+        <v>845.4269359665452</v>
       </c>
       <c r="X46" t="n">
-        <v>2510.178003440095</v>
+        <v>709.3719084225629</v>
       </c>
       <c r="Y46" t="n">
-        <v>2381.3199476506</v>
+        <v>580.5138526330678</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>133.6015256506273</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>169.1880990876106</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.94224108380348</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>415.5215578597467</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>343.5622652504703</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>53.40212541870946</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>25.09949661053309</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>110.5795516773566</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>216.7658261560073</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>200.6444205287719</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>270.7633577833658</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>429.0423203172943</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>101.5532568666986</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>53.40212541870935</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>159.77723370959</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>115.1905674602523</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>216.7658261560072</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>164.3882494924849</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>15.10491126663305</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>115.1905674602523</v>
       </c>
       <c r="O39" t="n">
-        <v>244.5876497244032</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>384.4294520696524</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>169.1880990876108</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720744</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>75.7909813141497</v>
       </c>
       <c r="K45" t="n">
-        <v>105.7797020822314</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>45.13471955850233</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>45.13471955850264</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>45.13471955850304</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>45.13471955850105</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>45.13471955850244</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>45.13471955850238</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>45.13471955850233</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>45.13471955850247</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>45.1347195585021</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>45.13471955850281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.13471955850243</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>45.1347195585036</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658124.6072349305</v>
+        <v>658124.6072349306</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658124.6072349305</v>
+        <v>658124.6072349306</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658124.6072349305</v>
+        <v>658124.6072349306</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658124.6072349305</v>
+        <v>658124.6072349306</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658124.6072349305</v>
+        <v>658124.6072349306</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
         <v>797012.82003274</v>
       </c>
       <c r="F2" t="n">
-        <v>797012.8200327398</v>
+        <v>797012.8200327402</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="H2" t="n">
         <v>800515.725617676</v>
       </c>
       <c r="I2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="J2" t="n">
+        <v>797012.8200327402</v>
+      </c>
+      <c r="K2" t="n">
+        <v>797012.8200327402</v>
+      </c>
+      <c r="L2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="N2" t="n">
         <v>800515.7256176758</v>
       </c>
-      <c r="J2" t="n">
-        <v>797012.8200327401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>797012.82003274</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176757</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.725617676</v>
-      </c>
       <c r="O2" t="n">
-        <v>797012.82003274</v>
+        <v>797012.8200327399</v>
       </c>
       <c r="P2" t="n">
-        <v>797012.82003274</v>
+        <v>797012.8200327402</v>
       </c>
     </row>
     <row r="3">
@@ -26377,13 +26377,13 @@
         <v>703589.292039426</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120171</v>
+        <v>2407.185043120069</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240217</v>
+        <v>4814.370086240206</v>
       </c>
       <c r="M3" t="n">
         <v>157788.2115544437</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015545</v>
+        <v>67997.77241015554</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>117690.3635000392</v>
       </c>
       <c r="G4" t="n">
+        <v>119725.8131608612</v>
+      </c>
+      <c r="H4" t="n">
+        <v>119725.8131608612</v>
+      </c>
+      <c r="I4" t="n">
         <v>119725.8131608613</v>
-      </c>
-      <c r="H4" t="n">
-        <v>119725.8131608613</v>
-      </c>
-      <c r="I4" t="n">
-        <v>119725.8131608612</v>
       </c>
       <c r="J4" t="n">
         <v>117690.3635000392</v>
@@ -26450,13 +26450,13 @@
         <v>119725.8131608612</v>
       </c>
       <c r="M4" t="n">
+        <v>119725.8131608613</v>
+      </c>
+      <c r="N4" t="n">
         <v>119725.8131608612</v>
       </c>
-      <c r="N4" t="n">
-        <v>119725.8131608613</v>
-      </c>
       <c r="O4" t="n">
-        <v>117690.3635000392</v>
+        <v>117690.3635000393</v>
       </c>
       <c r="P4" t="n">
         <v>117690.3635000392</v>
@@ -26481,7 +26481,7 @@
         <v>72787.96136398586</v>
       </c>
       <c r="F5" t="n">
-        <v>72787.96136398584</v>
+        <v>72787.96136398587</v>
       </c>
       <c r="G5" t="n">
         <v>73040.92341322344</v>
@@ -26508,10 +26508,10 @@
         <v>73040.92341322344</v>
       </c>
       <c r="O5" t="n">
-        <v>72787.96136398584</v>
+        <v>72787.96136398586</v>
       </c>
       <c r="P5" t="n">
-        <v>72787.96136398584</v>
+        <v>72787.96136398586</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>367237.2294752884</v>
+        <v>367237.2294752885</v>
       </c>
       <c r="C6" t="n">
         <v>448006.661006836</v>
       </c>
       <c r="D6" t="n">
-        <v>448006.6610068362</v>
+        <v>448006.661006836</v>
       </c>
       <c r="E6" t="n">
-        <v>-97054.7968707111</v>
+        <v>-97144.61496263252</v>
       </c>
       <c r="F6" t="n">
-        <v>606534.4951687148</v>
+        <v>606444.6770767937</v>
       </c>
       <c r="G6" t="n">
-        <v>605341.8040004718</v>
+        <v>605341.8040004711</v>
       </c>
       <c r="H6" t="n">
         <v>607748.9890435913</v>
       </c>
       <c r="I6" t="n">
-        <v>607748.9890435911</v>
+        <v>607748.9890435914</v>
       </c>
       <c r="J6" t="n">
-        <v>473069.5951163333</v>
+        <v>472979.777024412</v>
       </c>
       <c r="K6" t="n">
-        <v>606534.4951687149</v>
+        <v>606444.6770767937</v>
       </c>
       <c r="L6" t="n">
-        <v>602934.6189573508</v>
+        <v>602934.6189573511</v>
       </c>
       <c r="M6" t="n">
-        <v>449960.7774891475</v>
+        <v>449960.7774891476</v>
       </c>
       <c r="N6" t="n">
         <v>607748.9890435913</v>
       </c>
       <c r="O6" t="n">
-        <v>538536.7227585595</v>
+        <v>538446.9046666379</v>
       </c>
       <c r="P6" t="n">
-        <v>606534.495168715</v>
+        <v>606444.6770767937</v>
       </c>
     </row>
   </sheetData>
@@ -26697,37 +26697,37 @@
         <v>91.01517812049465</v>
       </c>
       <c r="F2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I2" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="K2" t="n">
+        <v>91.01517812049461</v>
+      </c>
+      <c r="L2" t="n">
+        <v>94.02415942439478</v>
+      </c>
+      <c r="M2" t="n">
+        <v>94.02415942439481</v>
+      </c>
+      <c r="N2" t="n">
+        <v>94.02415942439471</v>
+      </c>
+      <c r="O2" t="n">
         <v>91.01517812049465</v>
       </c>
-      <c r="L2" t="n">
-        <v>94.02415942439471</v>
-      </c>
-      <c r="M2" t="n">
-        <v>94.0241594243948</v>
-      </c>
-      <c r="N2" t="n">
-        <v>94.02415942439481</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91.01517812049464</v>
-      </c>
       <c r="P2" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="3">
@@ -26755,7 +26755,7 @@
         <v>549.8197777449312</v>
       </c>
       <c r="H3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449313</v>
       </c>
       <c r="I3" t="n">
         <v>549.8197777449312</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>874.1831447324752</v>
+      </c>
+      <c r="F4" t="n">
         <v>874.1831447324753</v>
-      </c>
-      <c r="F4" t="n">
-        <v>874.1831447324752</v>
       </c>
       <c r="G4" t="n">
         <v>874.1831447324753</v>
       </c>
       <c r="H4" t="n">
-        <v>874.1831447324752</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="I4" t="n">
         <v>874.1831447324753</v>
@@ -26828,10 +26828,10 @@
         <v>874.1831447324753</v>
       </c>
       <c r="O4" t="n">
-        <v>874.1831447324752</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="P4" t="n">
-        <v>874.1831447324751</v>
+        <v>874.1831447324753</v>
       </c>
     </row>
   </sheetData>
@@ -26919,13 +26919,13 @@
         <v>91.01517812049465</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900214</v>
+        <v>3.008981303900086</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,16 +26937,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800271</v>
+        <v>6.017962607800257</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269431</v>
+        <v>84.99721551269442</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548162</v>
+        <v>633.1688558548161</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>91.01517812049465</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900214</v>
+        <v>3.008981303900086</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>172.8041343964291</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>278.9163632865933</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>102.4172973967244</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>86.6955856426404</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>265.6174421997282</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>83.17903909039828</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27697,16 +27697,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>97.65173930755054</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>283.9852878749975</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.2737017189523</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27937,22 +27937,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>80.85147618046302</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>135.2951727822957</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="C14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="D14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="E14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="F14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="G14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="H14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="I14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="T14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="U14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="V14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="W14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="X14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="C16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="D16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="E16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="F16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="G16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="H16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="I16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="J16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="K16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="L16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="M16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="N16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="O16" t="n">
-        <v>91.01517812049494</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049408</v>
       </c>
       <c r="R16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="S16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="T16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="U16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="V16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="W16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="X16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049468</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="M19" t="n">
-        <v>20.83109599206759</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.02415942439484</v>
+        <v>20.83109599206922</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439477</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654648</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="L22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="M22" t="n">
-        <v>20.83109599206759</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="O22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439484</v>
+        <v>20.83109599206852</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M25" t="n">
-        <v>20.83109599206816</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.0241594243948</v>
+        <v>20.83109599206853</v>
       </c>
       <c r="R25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654741</v>
       </c>
       <c r="S26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="C28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="D28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="E28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="F28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="G28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="H28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="I28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="J28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="K28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="L28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="M28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="N28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="O28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="P28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="S28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="T28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="U28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="V28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="W28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="X28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049464</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11.02442803654741</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.01517812049465</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="N34" t="n">
-        <v>20.83109599207091</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="P34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.02415942439471</v>
+        <v>20.83109599206876</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439471</v>
+        <v>94.02415942439478</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M37" t="n">
-        <v>94.0241594243948</v>
+        <v>20.83109599206861</v>
       </c>
       <c r="N37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83109599206861</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="R37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.0241594243948</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="C38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="D38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="E38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="F38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="G38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="H38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="I38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="T38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="U38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="V38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="W38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="X38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="C40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="D40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="E40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="F40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="G40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="H40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="I40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="J40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="K40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83109599206833</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="M40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="N40" t="n">
-        <v>94.02415942439481</v>
+        <v>20.83109599207091</v>
       </c>
       <c r="O40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="P40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="R40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="S40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="T40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="U40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="V40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="W40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="X40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439471</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654743</v>
       </c>
       <c r="S41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>11.02442803654651</v>
       </c>
       <c r="S44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.01517812049464</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
   </sheetData>
@@ -32469,43 +32469,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I20" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009636</v>
       </c>
       <c r="J20" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K20" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234043</v>
       </c>
       <c r="L20" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667669</v>
       </c>
       <c r="M20" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053454</v>
       </c>
       <c r="N20" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908441</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483269</v>
       </c>
       <c r="P20" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R20" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S20" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296533</v>
       </c>
       <c r="T20" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928387</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I21" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733691</v>
       </c>
       <c r="J21" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K21" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L21" t="n">
-        <v>256.7813971439889</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M21" t="n">
         <v>299.6517788709875</v>
@@ -32566,25 +32566,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O21" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P21" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q21" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R21" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412501</v>
       </c>
       <c r="S21" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T21" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467847</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994314</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367613</v>
       </c>
       <c r="H22" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877757</v>
       </c>
       <c r="I22" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393825</v>
       </c>
       <c r="J22" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298902</v>
       </c>
       <c r="K22" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L22" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M22" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N22" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O22" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P22" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948463</v>
       </c>
       <c r="R22" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223655</v>
       </c>
       <c r="S22" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T22" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655068</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K12" t="n">
         <v>317.5928051819473</v>
@@ -35500,13 +35500,13 @@
         <v>623.2228086989691</v>
       </c>
       <c r="N12" t="n">
-        <v>176.2409577326731</v>
+        <v>309.8424833833004</v>
       </c>
       <c r="O12" t="n">
-        <v>532.6441265618066</v>
+        <v>138.7818072850771</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0443849134579</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q12" t="n">
         <v>221.0573514940585</v>
@@ -35731,13 +35731,13 @@
         <v>317.5928051819473</v>
       </c>
       <c r="L15" t="n">
-        <v>489.0673626675739</v>
+        <v>215.1692584479182</v>
       </c>
       <c r="M15" t="n">
         <v>157.5177449489692</v>
       </c>
       <c r="N15" t="n">
-        <v>591.7625155924198</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O15" t="n">
         <v>532.6441265618066</v>
@@ -35746,7 +35746,7 @@
         <v>410.3190544657845</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.98006375820944</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.75351294681086</v>
+        <v>67.75351294681091</v>
       </c>
       <c r="K16" t="n">
         <v>183.9374364516646</v>
@@ -35819,13 +35819,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O16" t="n">
-        <v>255.7412552866361</v>
+        <v>255.7412552866359</v>
       </c>
       <c r="P16" t="n">
-        <v>208.2085295676596</v>
+        <v>208.2085295676597</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828486</v>
+        <v>87.87592130828432</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K18" t="n">
-        <v>53.12756816936869</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L18" t="n">
-        <v>489.0673626675739</v>
+        <v>461.789282614585</v>
       </c>
       <c r="M18" t="n">
         <v>623.2228086989691</v>
@@ -35977,13 +35977,13 @@
         <v>655.5833320762266</v>
       </c>
       <c r="O18" t="n">
-        <v>532.6441265618066</v>
+        <v>138.7818072850771</v>
       </c>
       <c r="P18" t="n">
         <v>91.85628582584729</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.3821891769189</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.76249425071107</v>
+        <v>70.762494250711</v>
       </c>
       <c r="K19" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L19" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M19" t="n">
-        <v>215.8337012761352</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N19" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O19" t="n">
         <v>258.750236590536</v>
       </c>
       <c r="P19" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.88490261218507</v>
+        <v>17.69183917985946</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K20" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495885</v>
       </c>
       <c r="L20" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472301</v>
       </c>
       <c r="M20" t="n">
         <v>607.2820421709051</v>
       </c>
       <c r="N20" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062373</v>
       </c>
       <c r="O20" t="n">
-        <v>523.1178374893854</v>
+        <v>523.1178374893855</v>
       </c>
       <c r="P20" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q20" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K21" t="n">
-        <v>317.5928051819473</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L21" t="n">
-        <v>143.3265139746478</v>
+        <v>118.2270173641148</v>
       </c>
       <c r="M21" t="n">
-        <v>623.2228086989691</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N21" t="n">
-        <v>655.5833320762266</v>
+        <v>286.8205094100298</v>
       </c>
       <c r="O21" t="n">
-        <v>138.7818072850771</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P21" t="n">
         <v>410.3190544657845</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.0573514940585</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071107</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K22" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L22" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M22" t="n">
-        <v>215.8337012761352</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N22" t="n">
         <v>289.8795501442863</v>
@@ -36299,7 +36299,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218507</v>
+        <v>17.69183917985877</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K24" t="n">
-        <v>269.8933943253759</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L24" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M24" t="n">
-        <v>623.2228086989691</v>
+        <v>157.5177449489692</v>
       </c>
       <c r="N24" t="n">
         <v>655.5833320762266</v>
@@ -36457,7 +36457,7 @@
         <v>410.3190544657845</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.98006375820944</v>
+        <v>211.6244842869813</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.76249425071103</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K25" t="n">
         <v>186.9464177555647</v>
@@ -36524,7 +36524,7 @@
         <v>269.0199657542291</v>
       </c>
       <c r="M25" t="n">
-        <v>215.8337012761357</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N25" t="n">
         <v>289.8795501442862</v>
@@ -36536,7 +36536,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.88490261218503</v>
+        <v>17.69183917985877</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>317.5928051819473</v>
       </c>
       <c r="L27" t="n">
-        <v>118.2270173641147</v>
+        <v>388.9903751474805</v>
       </c>
       <c r="M27" t="n">
         <v>623.2228086989691</v>
       </c>
       <c r="N27" t="n">
-        <v>605.2832780499674</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O27" t="n">
         <v>532.6441265618066</v>
@@ -36694,7 +36694,7 @@
         <v>91.85628582584729</v>
       </c>
       <c r="Q27" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820944</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.75351294681086</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K28" t="n">
         <v>183.9374364516646</v>
@@ -36767,13 +36767,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O28" t="n">
-        <v>255.7412552866358</v>
+        <v>255.7412552866359</v>
       </c>
       <c r="P28" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.87592130828486</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K30" t="n">
         <v>53.12756816936869</v>
@@ -36919,7 +36919,7 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M30" t="n">
-        <v>259.0710018156678</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N30" t="n">
         <v>655.5833320762266</v>
@@ -36928,10 +36928,10 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P30" t="n">
-        <v>410.3190544657845</v>
+        <v>145.2584112445566</v>
       </c>
       <c r="Q30" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820944</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.75351294681089</v>
+        <v>67.75351294681084</v>
       </c>
       <c r="K31" t="n">
-        <v>183.9374364516646</v>
+        <v>183.9374364516645</v>
       </c>
       <c r="L31" t="n">
         <v>266.0109844503289</v>
@@ -37004,13 +37004,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O31" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P31" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.87592130828489</v>
+        <v>87.87592130828484</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K33" t="n">
-        <v>53.12756816936869</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L33" t="n">
-        <v>489.0673626675739</v>
+        <v>278.0042510737047</v>
       </c>
       <c r="M33" t="n">
         <v>623.2228086989691</v>
       </c>
       <c r="N33" t="n">
-        <v>291.4315251929253</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O33" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P33" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q33" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820944</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071094</v>
+        <v>70.76249425071101</v>
       </c>
       <c r="K34" t="n">
-        <v>186.9464177555646</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L34" t="n">
         <v>269.019965754229</v>
@@ -37238,16 +37238,16 @@
         <v>289.0267647084623</v>
       </c>
       <c r="N34" t="n">
-        <v>216.6864867119623</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O34" t="n">
-        <v>258.7502365905359</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P34" t="n">
-        <v>211.2175108715597</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.88490261218494</v>
+        <v>17.691839179859</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>53.12756816936869</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9928435201219</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M36" t="n">
         <v>623.2228086989691</v>
@@ -37402,7 +37402,7 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P36" t="n">
-        <v>410.3190544657845</v>
+        <v>256.2445353183322</v>
       </c>
       <c r="Q36" t="n">
         <v>10.98006375820944</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071103</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K37" t="n">
         <v>186.9464177555647</v>
@@ -37472,7 +37472,7 @@
         <v>269.0199657542291</v>
       </c>
       <c r="M37" t="n">
-        <v>289.0267647084623</v>
+        <v>215.8337012761362</v>
       </c>
       <c r="N37" t="n">
         <v>289.8795501442862</v>
@@ -37481,10 +37481,10 @@
         <v>258.750236590536</v>
       </c>
       <c r="P37" t="n">
-        <v>138.0244474392336</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218503</v>
+        <v>90.88490261218504</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>317.5928051819473</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L39" t="n">
         <v>489.0673626675739</v>
@@ -37633,10 +37633,10 @@
         <v>623.2228086989691</v>
       </c>
       <c r="N39" t="n">
-        <v>176.2409577326731</v>
+        <v>291.4315251929253</v>
       </c>
       <c r="O39" t="n">
-        <v>383.3694570094803</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P39" t="n">
         <v>410.3190544657845</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.76249425071104</v>
+        <v>70.76249425071094</v>
       </c>
       <c r="K40" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555646</v>
       </c>
       <c r="L40" t="n">
-        <v>195.8269023219026</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N40" t="n">
-        <v>289.8795501442862</v>
+        <v>216.6864867119623</v>
       </c>
       <c r="O40" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905359</v>
       </c>
       <c r="P40" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715597</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.88490261218504</v>
+        <v>90.88490261218494</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M41" t="n">
-        <v>607.2820421709054</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N41" t="n">
         <v>602.3287050062372</v>
@@ -37803,7 +37803,7 @@
         <v>228.7001571631554</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>53.12756816936869</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L42" t="n">
         <v>489.0673626675739</v>
       </c>
       <c r="M42" t="n">
-        <v>541.9471970186215</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N42" t="n">
-        <v>655.5833320762266</v>
+        <v>345.4290568202839</v>
       </c>
       <c r="O42" t="n">
-        <v>138.7818072850771</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P42" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q42" t="n">
         <v>221.0573514940585</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.75351294681087</v>
+        <v>67.75351294681089</v>
       </c>
       <c r="K43" t="n">
         <v>183.9374364516646</v>
@@ -37958,7 +37958,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.87592130828487</v>
+        <v>87.87592130828489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946498</v>
       </c>
       <c r="K44" t="n">
         <v>385.2179235495884</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>110.9861240737758</v>
+        <v>60.68607004751665</v>
       </c>
       <c r="K45" t="n">
-        <v>158.9072702516001</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L45" t="n">
         <v>118.2270173641147</v>
@@ -38113,10 +38113,10 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P45" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.98006375820944</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.75351294681087</v>
+        <v>67.75351294681089</v>
       </c>
       <c r="K46" t="n">
         <v>183.9374364516646</v>
@@ -38195,7 +38195,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.87592130828487</v>
+        <v>87.87592130828489</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
